--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/个人资本金.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/个人资本金.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,383 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>25.54547</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47.36059</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.80137</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00257</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.79639</v>
-      </c>
-      <c r="G2" t="n">
-        <v>65.85993999999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>27.72805</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48.13003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>6.26838</v>
-      </c>
-      <c r="K2" t="n">
-        <v>612.4344</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.42117</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.51333</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.17631</v>
-      </c>
-      <c r="O2" t="n">
-        <v>29.73223</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.47813</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.33245</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.42499</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.50206</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.07976999999999999</v>
-      </c>
-      <c r="U2" t="n">
-        <v>6.0932</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.07986</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.72021</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.95333</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29.99554</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>60.53164</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>26.2863</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.54343</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12.68748</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.15613</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>30.31627</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3.44931</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.9526</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.88839</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>37.48451</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.47321</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.22772</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>17.09249</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>22.54488</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>39.65772</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.12975</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>24.75603</v>
-      </c>
-      <c r="C3" t="n">
-        <v>44.34574</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.62268</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.90548</v>
-      </c>
-      <c r="G3" t="n">
-        <v>94.95317</v>
-      </c>
-      <c r="H3" t="n">
-        <v>21.81303</v>
-      </c>
-      <c r="I3" t="n">
-        <v>53.22597</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8.837630000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>680.46987</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.74643</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01021</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.35545</v>
-      </c>
-      <c r="O3" t="n">
-        <v>30.14756</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13.01853</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.30454</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.02174</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.07315</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.16606</v>
-      </c>
-      <c r="U3" t="n">
-        <v>5.87628</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.08958000000000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.60436</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.76357</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>35.2444</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>56.66031</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>26.06433</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.75782</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16.99152</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.93878</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>32.04972</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2.61261</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19.9962</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>8.257379999999999</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>35.55123</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.87702</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>8.256600000000001</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15.4702</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>24.57867</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>61.99292</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.51387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>21.61218</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41.93043</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.83986</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.99581</v>
-      </c>
-      <c r="G4" t="n">
-        <v>76.52240999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22.15689</v>
-      </c>
-      <c r="I4" t="n">
-        <v>53.40413</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.73806</v>
-      </c>
-      <c r="K4" t="n">
-        <v>667.55542</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7.74975</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.04283</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.61412</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30.87218</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15.79272</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.53645</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.91693</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.48481</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.17504</v>
-      </c>
-      <c r="U4" t="n">
-        <v>6.75441</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.08076</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.11895</v>
-      </c>
-      <c r="X4" t="n">
-        <v>5.89868</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>35.73668</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>57.07864</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>21.66679</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.41148</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15.66403</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.40318</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>32.82729</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>3.3595</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.91289</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>9.35615</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>38.02441</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>1.49722</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12.5279</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>16.55974</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29.74121</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>58.12875</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.26798</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
